--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD14532-A9BD-2145-AA3C-E53BD828F0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FC823-DD02-124E-A80E-305AA77B01AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
+    <workbookView xWindow="28800" yWindow="3100" windowWidth="19200" windowHeight="14900" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시원찮은그녀의육성방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시원그녀 스타킹 사에카노</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +237,175 @@
   <si>
     <t>듀라라라</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철의연금술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y6FCQWlKeJQ</t>
+  </si>
+  <si>
+    <t>gyJCjbXzcKc</t>
+  </si>
+  <si>
+    <t>nIrYjzHAEp0</t>
+  </si>
+  <si>
+    <t>GvPa1qcmKbs</t>
+  </si>
+  <si>
+    <t>fvBGhH5D8hc</t>
+  </si>
+  <si>
+    <t>_IkopJwRDKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DyQydVTeIf8</t>
+  </si>
+  <si>
+    <t>Y92ltxkeJRY</t>
+  </si>
+  <si>
+    <t>7G1KkumdUWk</t>
+  </si>
+  <si>
+    <t>나루토질풍전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlFA0Zq1k2A</t>
+  </si>
+  <si>
+    <t>EOKAnomhHRg</t>
+  </si>
+  <si>
+    <t>4WzYx1283YU</t>
+  </si>
+  <si>
+    <t>qEEb6m8lOLo</t>
+  </si>
+  <si>
+    <t>oTNYCBWO42c</t>
+  </si>
+  <si>
+    <t>IYfoMSc3X7M</t>
+  </si>
+  <si>
+    <t>aZenmeRytEM</t>
+  </si>
+  <si>
+    <t>aAaQekXuISU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hy9s13hWsoc</t>
+  </si>
+  <si>
+    <t>maKok2RItxM</t>
+  </si>
+  <si>
+    <t>NKhqcSlK3qI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JBqxVX_LXvk</t>
+  </si>
+  <si>
+    <t>시원찮은그녀를위한육성방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3Lu3mWDFtg</t>
+  </si>
+  <si>
+    <t>xMmbLJcnp0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2oLSuongkY</t>
+  </si>
+  <si>
+    <t>uwph0dv9E6U</t>
+  </si>
+  <si>
+    <t>WZKxCkdhDWU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OkNvl3fNf5A</t>
+  </si>
+  <si>
+    <t>uoMyt-dcsfg</t>
+  </si>
+  <si>
+    <t>FWNpDq70M10</t>
+  </si>
+  <si>
+    <t>_5dfp-kGfNE</t>
+  </si>
+  <si>
+    <t>JUewJm2ssBw</t>
+  </si>
+  <si>
+    <t>문호스트레이독스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bxbXUMy4kok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1hLZ2OchZ8</t>
+  </si>
+  <si>
+    <t>여친빌리겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카노카리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에로망가선생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건어물여동생우마루짱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우마루 건어물여동생우마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b6-2P8RgT0A</t>
+  </si>
+  <si>
+    <t>중이병이어도사랑이하고싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중이코이 주니코이 중이병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QaRmIOOKLE0</t>
+  </si>
+  <si>
+    <t>UNjHxhljAck</t>
+  </si>
+  <si>
+    <t>학교생활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SjyvB864d48</t>
   </si>
 </sst>
 </file>
@@ -604,240 +769,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="C2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="C14" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>49</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FC823-DD02-124E-A80E-305AA77B01AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE0E68D-208B-8149-A1F5-94AB772A7BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3100" windowWidth="19200" windowHeight="14900" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
@@ -33,24 +33,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>starttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>answer keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소드아트온라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>psycho-pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>길티크라운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,140 +260,280 @@
     <t>Y92ltxkeJRY</t>
   </si>
   <si>
+    <t>나루토질풍전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlFA0Zq1k2A</t>
+  </si>
+  <si>
+    <t>EOKAnomhHRg</t>
+  </si>
+  <si>
+    <t>4WzYx1283YU</t>
+  </si>
+  <si>
+    <t>qEEb6m8lOLo</t>
+  </si>
+  <si>
+    <t>oTNYCBWO42c</t>
+  </si>
+  <si>
+    <t>IYfoMSc3X7M</t>
+  </si>
+  <si>
+    <t>aZenmeRytEM</t>
+  </si>
+  <si>
+    <t>aAaQekXuISU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hy9s13hWsoc</t>
+  </si>
+  <si>
+    <t>maKok2RItxM</t>
+  </si>
+  <si>
+    <t>NKhqcSlK3qI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JBqxVX_LXvk</t>
+  </si>
+  <si>
+    <t>시원찮은그녀를위한육성방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3Lu3mWDFtg</t>
+  </si>
+  <si>
+    <t>xMmbLJcnp0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2oLSuongkY</t>
+  </si>
+  <si>
+    <t>uwph0dv9E6U</t>
+  </si>
+  <si>
+    <t>WZKxCkdhDWU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OkNvl3fNf5A</t>
+  </si>
+  <si>
+    <t>uoMyt-dcsfg</t>
+  </si>
+  <si>
+    <t>FWNpDq70M10</t>
+  </si>
+  <si>
+    <t>_5dfp-kGfNE</t>
+  </si>
+  <si>
+    <t>JUewJm2ssBw</t>
+  </si>
+  <si>
+    <t>문호스트레이독스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bxbXUMy4kok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1hLZ2OchZ8</t>
+  </si>
+  <si>
+    <t>여친빌리겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카노카리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에로망가선생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건어물여동생우마루짱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우마루 건어물여동생우마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b6-2P8RgT0A</t>
+  </si>
+  <si>
+    <t>중이병이어도사랑이하고싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중이코이 주니코이 중이병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QaRmIOOKLE0</t>
+  </si>
+  <si>
+    <t>UNjHxhljAck</t>
+  </si>
+  <si>
+    <t>학교생활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SjyvB864d48</t>
+  </si>
+  <si>
+    <t>사이코패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7G1KkumdUWk</t>
-  </si>
-  <si>
-    <t>나루토질풍전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dlFA0Zq1k2A</t>
-  </si>
-  <si>
-    <t>EOKAnomhHRg</t>
-  </si>
-  <si>
-    <t>4WzYx1283YU</t>
-  </si>
-  <si>
-    <t>qEEb6m8lOLo</t>
-  </si>
-  <si>
-    <t>oTNYCBWO42c</t>
-  </si>
-  <si>
-    <t>IYfoMSc3X7M</t>
-  </si>
-  <si>
-    <t>aZenmeRytEM</t>
-  </si>
-  <si>
-    <t>aAaQekXuISU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hy9s13hWsoc</t>
-  </si>
-  <si>
-    <t>maKok2RItxM</t>
-  </si>
-  <si>
-    <t>NKhqcSlK3qI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JBqxVX_LXvk</t>
-  </si>
-  <si>
-    <t>시원찮은그녀를위한육성방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R3Lu3mWDFtg</t>
-  </si>
-  <si>
-    <t>xMmbLJcnp0s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2oLSuongkY</t>
-  </si>
-  <si>
-    <t>uwph0dv9E6U</t>
-  </si>
-  <si>
-    <t>WZKxCkdhDWU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OkNvl3fNf5A</t>
-  </si>
-  <si>
-    <t>uoMyt-dcsfg</t>
-  </si>
-  <si>
-    <t>FWNpDq70M10</t>
-  </si>
-  <si>
-    <t>_5dfp-kGfNE</t>
-  </si>
-  <si>
-    <t>JUewJm2ssBw</t>
-  </si>
-  <si>
-    <t>문호스트레이독스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bxbXUMy4kok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I1hLZ2OchZ8</t>
-  </si>
-  <si>
-    <t>여친빌리겠습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카노카리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에로망가선생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건어물여동생우마루짱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우마루 건어물여동생우마루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b6-2P8RgT0A</t>
-  </si>
-  <si>
-    <t>중이병이어도사랑이하고싶어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중이코이 주니코이 중이병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QaRmIOOKLE0</t>
-  </si>
-  <si>
-    <t>UNjHxhljAck</t>
-  </si>
-  <si>
-    <t>학교생활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SjyvB864d48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerKeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철혈의오펜스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알드노아제로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정교사히트맨리본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFadUtWFsQk</t>
+  </si>
+  <si>
+    <t>이누야샤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가히리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알드노아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철혈 오펜스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이누야사완결편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0GF5vHEq9LY</t>
+  </si>
+  <si>
+    <t>시간을달리는소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nFG3l5zxLdM</t>
+  </si>
+  <si>
+    <t>그날본꽃의이름은우리는아직모른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아노하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로의사역마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXhw8QatPxw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지몬어드벤쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHqlSoqw6mU</t>
+  </si>
+  <si>
+    <t>신만이아는세계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러키스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인피니트스트라토스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipyi1H1-idg</t>
+  </si>
+  <si>
+    <t>엔젤비트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wLtVF8VUlw8</t>
+  </si>
+  <si>
+    <t>2eJF4o06z58</t>
+  </si>
+  <si>
+    <t>기교소녀는상처받지않아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hU8u0BvMzVs</t>
+  </si>
+  <si>
+    <t>3S5Yu9HpE3I</t>
+  </si>
+  <si>
+    <t>신세기에반게리온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에반게리온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -429,12 +557,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -451,8 +585,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -786,19 +923,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -806,16 +943,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -823,16 +960,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -840,16 +977,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -857,16 +994,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -874,16 +1011,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -891,16 +1028,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -908,16 +1045,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -925,13 +1062,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -939,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -953,16 +1090,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -970,13 +1107,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -984,13 +1121,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -998,16 +1135,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1015,16 +1152,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1032,16 +1169,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1049,13 +1186,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1063,16 +1200,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1080,16 +1217,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1097,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1114,13 +1251,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1128,13 +1265,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1142,16 +1279,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1159,16 +1296,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1176,16 +1313,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1193,13 +1330,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1207,16 +1344,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1224,13 +1361,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1238,13 +1375,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1252,16 +1389,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1269,13 +1406,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1283,13 +1420,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1297,13 +1437,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1311,16 +1454,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1328,13 +1471,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1342,16 +1485,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1359,16 +1502,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1376,13 +1519,167 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE0E68D-208B-8149-A1F5-94AB772A7BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BDC12C-9846-F74A-9D24-D459CF8720A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3100" windowWidth="19200" windowHeight="14900" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>길크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알바뛰는마왕님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이마스 신데마스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노라가미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메이도라, 메이드래곤, 코바야시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>니세코이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카구야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마법소녀마도카마기카</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7G1KkumdUWk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>startTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>러키스타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인피니트스트라토스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,6 +509,63 @@
   </si>
   <si>
     <t>에반게리온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길크 길티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>럭키스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이마스 신데마스 아이돌마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v9iz9glzbMs</t>
+  </si>
+  <si>
+    <t>wT5uF0kAW9Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUGqGRcNb38</t>
+  </si>
+  <si>
+    <t>49X8c3Q5Ezs</t>
+  </si>
+  <si>
+    <t>카구야 카구야님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신만세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기교소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에망센 에로망가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이도라 메이드래곤 코바야시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFM_zypYFHM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -923,19 +956,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -943,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>62</v>
@@ -960,16 +993,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -977,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -986,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -994,16 +1027,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>53</v>
       </c>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1011,16 +1044,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1028,16 +1061,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1045,16 +1078,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1062,13 +1095,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1076,13 +1109,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1090,16 +1123,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1107,13 +1140,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1121,13 +1154,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1135,16 +1168,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1152,16 +1185,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>58</v>
       </c>
       <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1169,16 +1202,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1186,13 +1219,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1200,16 +1233,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1217,16 +1250,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1234,16 +1267,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1251,13 +1284,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1265,13 +1298,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1279,16 +1312,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1296,16 +1329,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1313,16 +1346,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1330,13 +1363,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1344,16 +1380,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27">
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1361,13 +1397,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1375,13 +1411,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1389,16 +1425,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1406,13 +1442,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1420,16 +1456,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1437,16 +1473,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1454,16 +1490,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1471,13 +1507,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1485,16 +1524,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1502,16 +1541,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1519,167 +1558,242 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
       <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
         <v>103</v>
       </c>
-      <c r="E39" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="D40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>113</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" t="s">
-        <v>128</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" t="s">
-        <v>129</v>
       </c>
       <c r="C50">
         <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+        <v>121</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
+        <v>124</v>
+      </c>
+      <c r="E51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BDC12C-9846-F74A-9D24-D459CF8720A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A711D18-A101-5E40-8241-F22DBB53E130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,19 +225,9 @@
     <t>gyJCjbXzcKc</t>
   </si>
   <si>
-    <t>nIrYjzHAEp0</t>
-  </si>
-  <si>
-    <t>GvPa1qcmKbs</t>
-  </si>
-  <si>
     <t>fvBGhH5D8hc</t>
   </si>
   <si>
-    <t>_IkopJwRDKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DyQydVTeIf8</t>
   </si>
   <si>
@@ -248,9 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dlFA0Zq1k2A</t>
-  </si>
-  <si>
     <t>EOKAnomhHRg</t>
   </si>
   <si>
@@ -303,10 +290,6 @@
     <t>uwph0dv9E6U</t>
   </si>
   <si>
-    <t>WZKxCkdhDWU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OkNvl3fNf5A</t>
   </si>
   <si>
@@ -409,9 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VFadUtWFsQk</t>
-  </si>
-  <si>
     <t>이누야샤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,9 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IHqlSoqw6mU</t>
-  </si>
-  <si>
     <t>신만이아는세계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,10 +493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>럭키스타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이마스 신데마스 아이돌마스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,10 +500,6 @@
     <t>v9iz9glzbMs</t>
   </si>
   <si>
-    <t>wT5uF0kAW9Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUGqGRcNb38</t>
   </si>
   <si>
@@ -567,6 +536,35 @@
   <si>
     <t>CFM_zypYFHM</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sWMntcz5sGE</t>
+  </si>
+  <si>
+    <t>lBsJLPy34yg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러키스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymwQI1UckUY</t>
+  </si>
+  <si>
+    <t>D8Xt9oNArwc</t>
+  </si>
+  <si>
+    <t>1cMKPc3Yors</t>
+  </si>
+  <si>
+    <t>ZJ83d7SP4jM</t>
+  </si>
+  <si>
+    <t>M_tGU3OzaVc</t>
+  </si>
+  <si>
+    <t>f9WBBnzuq6U</t>
   </si>
 </sst>
 </file>
@@ -941,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -962,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -999,7 +997,7 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1010,16 +1008,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1027,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1044,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1061,10 +1059,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1078,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1095,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -1109,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1123,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1132,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1140,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1154,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1168,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1185,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>58</v>
@@ -1202,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>70</v>
@@ -1211,7 +1209,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1219,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1233,7 +1231,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1250,7 +1248,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -1267,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1276,7 +1274,7 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1284,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>53</v>
@@ -1298,7 +1296,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -1312,13 +1310,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
@@ -1329,7 +1327,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1338,7 +1336,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1346,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1363,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>59</v>
@@ -1372,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1380,10 +1378,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="C27">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -1397,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>74</v>
@@ -1411,7 +1409,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>73</v>
@@ -1425,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -1442,7 +1440,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1456,7 +1454,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1465,7 +1463,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1473,16 +1471,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1490,16 +1488,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1507,16 +1505,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1524,16 +1522,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1541,16 +1539,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1558,13 +1556,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1572,16 +1570,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1589,16 +1587,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1606,16 +1604,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1623,16 +1621,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1640,16 +1638,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1657,13 +1655,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1671,16 +1669,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1688,13 +1686,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1702,16 +1700,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1719,13 +1717,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1733,16 +1731,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1750,16 +1748,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C50">
         <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1767,16 +1765,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1784,16 +1782,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A711D18-A101-5E40-8241-F22DBB53E130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BCDA61-3100-9F40-9AAE-27261536CC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,9 +468,6 @@
     <t>wLtVF8VUlw8</t>
   </si>
   <si>
-    <t>2eJF4o06z58</t>
-  </si>
-  <si>
     <t>기교소녀는상처받지않아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,6 +562,13 @@
   </si>
   <si>
     <t>f9WBBnzuq6U</t>
+  </si>
+  <si>
+    <t>N2pfq6VEhto</t>
+  </si>
+  <si>
+    <t>마리카짱귀여워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -939,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1008,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1017,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1025,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1059,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1107,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1121,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1209,7 +1213,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1274,7 +1278,7 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1290,6 +1294,9 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -1336,7 +1343,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1370,7 +1377,7 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1378,7 +1385,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1514,7 +1521,7 @@
         <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1570,7 +1577,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1587,7 +1594,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1604,7 +1611,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1638,7 +1645,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1669,7 +1676,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1700,7 +1707,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47">
         <v>200</v>
@@ -1709,7 +1716,7 @@
         <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1723,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1748,16 +1755,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C50">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1765,16 +1772,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1782,16 +1789,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>119</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>120</v>
-      </c>
-      <c r="E52" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BCDA61-3100-9F40-9AAE-27261536CC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49063625-4B1F-9049-B74C-3B999E94D505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마왕님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이트스테이나이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,9 +218,6 @@
     <t>y6FCQWlKeJQ</t>
   </si>
   <si>
-    <t>gyJCjbXzcKc</t>
-  </si>
-  <si>
     <t>fvBGhH5D8hc</t>
   </si>
   <si>
@@ -320,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카노카리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에로망가선생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,6 +557,18 @@
   </si>
   <si>
     <t>마리카짱귀여워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Y6_c64YT6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카노카리 렌탈여친</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕님 알바 알바마왕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,11 +621,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -958,19 +962,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -978,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>62</v>
@@ -994,17 +998,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1012,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1021,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1029,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1038,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1046,16 +1050,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1063,16 +1067,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1080,16 +1084,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1097,13 +1101,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,13 +1115,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,16 +1129,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,13 +1146,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1156,13 +1160,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1170,16 +1174,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,16 +1191,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>58</v>
       </c>
       <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,16 +1208,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,13 +1225,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1235,16 +1239,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
         <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1252,16 +1256,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
         <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1269,16 +1273,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1286,16 +1290,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1303,13 +1307,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1317,16 +1321,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1334,16 +1338,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1351,16 +1355,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>50</v>
       </c>
       <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
         <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1368,16 +1372,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,16 +1389,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
         <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,13 +1406,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1416,13 +1420,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29">
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1430,16 +1434,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
         <v>41</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1447,13 +1451,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1461,16 +1465,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1478,16 +1482,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1495,16 +1499,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1512,16 +1516,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1529,16 +1533,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1546,16 +1550,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1563,13 +1567,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1577,16 +1581,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1594,16 +1598,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1611,16 +1615,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1628,16 +1632,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1645,16 +1649,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1662,13 +1666,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1676,16 +1680,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1693,13 +1697,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1707,16 +1711,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1724,13 +1728,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1738,16 +1742,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1755,16 +1759,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1772,16 +1776,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1789,16 +1793,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49063625-4B1F-9049-B74C-3B999E94D505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFE100-46B2-C247-BA93-ED6A3256F1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,9 +221,6 @@
     <t>fvBGhH5D8hc</t>
   </si>
   <si>
-    <t>DyQydVTeIf8</t>
-  </si>
-  <si>
     <t>Y92ltxkeJRY</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
     <t>D8Xt9oNArwc</t>
   </si>
   <si>
-    <t>1cMKPc3Yors</t>
-  </si>
-  <si>
     <t>ZJ83d7SP4jM</t>
   </si>
   <si>
@@ -569,6 +563,17 @@
   </si>
   <si>
     <t>마왕님 알바 알바마왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7QDphlJI_Y</t>
+  </si>
+  <si>
+    <t>배구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kbu4B9Y9Ino</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -968,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -999,13 +1004,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1016,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1025,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1033,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1042,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1067,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1084,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1101,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -1115,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1129,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1138,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1146,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1160,13 +1165,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1174,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1191,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>58</v>
@@ -1208,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>70</v>
@@ -1217,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1225,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1239,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1256,7 +1264,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -1273,7 +1281,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1282,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1290,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>53</v>
@@ -1299,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1307,7 +1315,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -1321,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
         <v>31</v>
@@ -1338,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1347,7 +1355,7 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1355,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1372,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>59</v>
@@ -1381,7 +1389,7 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1389,7 +1397,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1406,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>74</v>
@@ -1420,7 +1428,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>73</v>
@@ -1434,7 +1442,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -1451,7 +1459,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1465,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1474,7 +1482,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1482,16 +1490,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1499,16 +1507,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>73</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>74</v>
-      </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1516,16 +1524,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1533,16 +1541,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
         <v>76</v>
-      </c>
-      <c r="E36" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1550,16 +1558,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
         <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1567,13 +1575,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1581,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1598,16 +1606,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1615,16 +1623,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1632,16 +1640,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1649,16 +1657,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1666,13 +1674,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1680,16 +1688,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
         <v>102</v>
-      </c>
-      <c r="E45" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1697,13 +1705,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1711,16 +1719,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1728,13 +1736,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1742,16 +1750,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
         <v>108</v>
-      </c>
-      <c r="E49" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1759,16 +1767,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1776,16 +1784,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1793,16 +1801,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>115</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>116</v>
-      </c>
-      <c r="E52" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFE100-46B2-C247-BA93-ED6A3256F1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172138A3-B1D8-C240-84F8-B4B6C92B8BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R3Lu3mWDFtg</t>
-  </si>
-  <si>
     <t>xMmbLJcnp0s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,9 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nFG3l5zxLdM</t>
-  </si>
-  <si>
     <t>그날본꽃의이름은우리는아직모른다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,6 +568,14 @@
   </si>
   <si>
     <t>kbu4B9Y9Ino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hw8cHFbx0W0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDRlYyPfW1c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -973,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1004,13 +1006,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1021,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1030,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1038,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1047,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1072,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1089,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1134,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1174,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1225,7 +1227,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1290,7 +1292,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1307,7 +1309,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1329,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
@@ -1346,7 +1348,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1355,7 +1357,7 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1363,7 +1365,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1380,7 +1382,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>59</v>
@@ -1389,7 +1391,7 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1397,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1414,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>74</v>
@@ -1428,7 +1430,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>73</v>
@@ -1442,7 +1444,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -1459,7 +1461,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1473,7 +1475,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1482,7 +1484,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1490,16 +1492,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1507,16 +1509,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>72</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
-      </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1524,16 +1526,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1541,16 +1543,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
         <v>75</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1558,16 +1560,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
         <v>78</v>
-      </c>
-      <c r="E37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1575,13 +1577,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,16 +1591,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,16 +1608,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,16 +1625,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,16 +1642,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,16 +1659,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,13 +1676,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1688,16 +1690,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1705,13 +1707,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1719,16 +1721,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1736,13 +1738,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1750,16 +1752,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1767,16 +1769,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1784,16 +1786,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1801,16 +1803,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
         <v>114</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172138A3-B1D8-C240-84F8-B4B6C92B8BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5B965-AE26-4A41-9FBE-D745BC9AF437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="28800" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,12 +571,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hw8cHFbx0W0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EDRlYyPfW1c</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KJXalFk49zI</t>
   </si>
 </sst>
 </file>
@@ -954,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1331,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1676,7 +1675,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44">
         <v>0</v>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5B965-AE26-4A41-9FBE-D745BC9AF437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F593C3DA-573A-644D-90A0-36563F22322A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3140" windowWidth="28800" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,9 +289,6 @@
     <t>_5dfp-kGfNE</t>
   </si>
   <si>
-    <t>JUewJm2ssBw</t>
-  </si>
-  <si>
     <t>문호스트레이독스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,9 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sWMntcz5sGE</t>
-  </si>
-  <si>
     <t>lBsJLPy34yg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,7 +569,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KJXalFk49zI</t>
+    <t>시달소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1GVJAmIzrA4</t>
+  </si>
+  <si>
+    <t>7R8ll4Ymrmw</t>
+  </si>
+  <si>
+    <t>or9cUneIU2w</t>
   </si>
 </sst>
 </file>
@@ -953,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -974,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1005,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1022,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1031,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1039,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1048,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1073,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1090,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1121,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1135,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1175,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1226,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1291,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1308,7 +1312,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1330,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1356,7 +1360,7 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1390,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1398,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1474,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1483,7 +1487,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1491,16 +1495,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1508,16 +1512,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1525,16 +1529,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1542,16 +1546,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
         <v>74</v>
-      </c>
-      <c r="E36" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1559,16 +1563,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
         <v>77</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1576,13 +1580,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1590,16 +1594,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1607,16 +1611,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1624,16 +1628,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1641,16 +1645,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1658,16 +1662,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1675,13 +1679,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1689,16 +1696,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
         <v>99</v>
-      </c>
-      <c r="E45" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1706,13 +1713,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1720,16 +1727,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1737,13 +1744,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1751,16 +1758,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
         <v>105</v>
-      </c>
-      <c r="E49" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1768,16 +1775,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1785,16 +1792,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1802,16 +1809,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>112</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>113</v>
-      </c>
-      <c r="E52" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F593C3DA-573A-644D-90A0-36563F22322A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC8FF2-802A-674A-BF5F-D26DF5286E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y6FCQWlKeJQ</t>
-  </si>
-  <si>
     <t>fvBGhH5D8hc</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EOKAnomhHRg</t>
-  </si>
-  <si>
     <t>4WzYx1283YU</t>
   </si>
   <si>
@@ -388,10 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디지몬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이누야사완결편</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,10 +389,6 @@
     <t>0GF5vHEq9LY</t>
   </si>
   <si>
-    <t>시간을달리는소녀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그날본꽃의이름은우리는아직모른다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디지몬어드벤쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신만이아는세계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,9 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P7QDphlJI_Y</t>
-  </si>
-  <si>
     <t>배구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,17 +548,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시달소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1GVJAmIzrA4</t>
-  </si>
-  <si>
     <t>7R8ll4Ymrmw</t>
   </si>
   <si>
     <t>or9cUneIU2w</t>
+  </si>
+  <si>
+    <t>오등분의신부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오등분 5등분의신부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xstUWxrQa-E</t>
+  </si>
+  <si>
+    <t>0AlQVSjkzTk</t>
+  </si>
+  <si>
+    <t>아무튼귀여워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W48B_E2vVp4</t>
+  </si>
+  <si>
+    <t>zB447eVGaTs</t>
   </si>
 </sst>
 </file>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E4:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -992,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1009,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1077,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -1125,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1148,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1156,10 +1156,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1170,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1187,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>58</v>
@@ -1221,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>70</v>
@@ -1230,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1238,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -1286,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1295,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1303,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>53</v>
@@ -1312,7 +1312,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1320,7 +1320,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>31</v>
@@ -1351,7 +1351,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -1385,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>59</v>
@@ -1394,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>74</v>
@@ -1433,7 +1433,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>73</v>
@@ -1447,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -1464,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1495,16 +1495,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1512,16 +1512,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1529,16 +1529,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1546,16 +1546,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1563,16 +1563,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1580,13 +1580,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
         <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1713,13 +1713,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1727,16 +1727,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1744,13 +1744,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC8FF2-802A-674A-BF5F-D26DF5286E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4120A2A4-AB69-5343-BC5B-E03CF10A1BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
@@ -532,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마왕님 알바 알바마왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,16 +554,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오등분 5등분의신부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xstUWxrQa-E</t>
   </si>
   <si>
-    <t>0AlQVSjkzTk</t>
-  </si>
-  <si>
     <t>아무튼귀여워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,6 +569,17 @@
   </si>
   <si>
     <t>zB447eVGaTs</t>
+  </si>
+  <si>
+    <t>5ukTAPU_mvQ</t>
+  </si>
+  <si>
+    <t>오등분 5등분의신부 5등분 갓등분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕님 알바 알바마왕 알뛰마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>59</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1094,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1334,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C43">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:5">

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4120A2A4-AB69-5343-BC5B-E03CF10A1BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6246AB-74C9-A042-9D1A-F01833282E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>귀칼 네즈코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿠로바스 쿠농</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중이코이 주니코이 중이병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QaRmIOOKLE0</t>
   </si>
   <si>
@@ -413,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ipyi1H1-idg</t>
   </si>
   <si>
@@ -579,6 +567,22 @@
   </si>
   <si>
     <t>마왕님 알바 알바마왕 알뛰마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS 아이에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀칼 네즈코 귀멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빤스키스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중이코이 주니코이 중이병 중2병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -972,19 +976,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -992,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2">
         <v>59</v>
@@ -1009,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1026,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1035,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1043,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1052,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1060,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1077,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1086,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1094,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1111,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -1125,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1139,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1148,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1156,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1170,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1179,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1187,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1196,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1204,16 +1208,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>58</v>
       </c>
       <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
         <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1221,16 +1225,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1238,13 +1242,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1252,16 +1256,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1269,16 +1273,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1286,16 +1290,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1303,16 +1307,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1320,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1334,16 +1338,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1351,16 +1355,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1368,16 +1372,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>50</v>
       </c>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
         <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1385,16 +1389,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1402,16 +1406,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
         <v>36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1419,13 +1423,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1433,13 +1437,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1447,16 +1451,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
         <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1464,13 +1468,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1478,16 +1482,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1495,16 +1499,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1512,16 +1516,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1529,16 +1533,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1546,16 +1550,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
         <v>71</v>
-      </c>
-      <c r="E36" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1563,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1580,13 +1584,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1594,16 +1598,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1611,16 +1615,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1628,16 +1632,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s">
         <v>87</v>
-      </c>
-      <c r="E41" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1645,16 +1649,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1662,16 +1666,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C43">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1679,16 +1683,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1696,16 +1700,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1713,13 +1717,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1727,16 +1734,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1744,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1758,16 +1765,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1775,16 +1782,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1792,16 +1799,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1809,16 +1816,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6246AB-74C9-A042-9D1A-F01833282E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B28BBA-6802-2343-BC52-2DD2840F1F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우마루 건어물여동생우마루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b6-2P8RgT0A</t>
   </si>
   <si>
@@ -583,6 +579,10 @@
   </si>
   <si>
     <t>중이코이 주니코이 중이병 중2병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우마루 건어물여동생우마루 우마루짱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -982,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>59</v>
@@ -1013,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1030,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1098,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1160,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1183,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1234,7 +1234,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1299,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1316,7 +1316,7 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1338,7 +1338,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1364,7 +1364,7 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1398,7 +1398,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1406,7 +1406,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1508,7 +1508,7 @@
         <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1525,7 +1525,7 @@
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1533,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>57</v>
@@ -1542,7 +1542,7 @@
         <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1550,7 +1550,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>21</v>
@@ -1559,7 +1559,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1567,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1584,13 +1584,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43">
         <v>24</v>
       </c>
       <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
         <v>137</v>
-      </c>
-      <c r="E43" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
         <v>141</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1751,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1799,16 +1799,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1816,16 +1816,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>103</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>104</v>
-      </c>
-      <c r="E52" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/animesong.xlsx
+++ b/Questions/animesong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B28BBA-6802-2343-BC52-2DD2840F1F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DFF38-CE27-8745-A347-0C556FE29823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C2EF2DDF-1058-F043-B3EC-FA013CE258A8}"/>
   </bookViews>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>철혈의오펜스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알드노아제로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>철혈 오펜스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이누야사완결편</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,6 +575,14 @@
   </si>
   <si>
     <t>우마루 건어물여동생우마루 우마루짱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철혈의오펀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철혈 오펀스 철혈의오펜스 오펜스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0362E7-04D3-2D49-9AC4-005F7152D7DD}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <v>59</v>
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3">
         <v>37</v>
@@ -1030,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>53</v>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1098,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1160,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1183,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1234,7 +1234,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1299,7 +1299,7 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1316,7 +1316,7 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1338,7 +1338,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1364,7 +1364,7 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1398,7 +1398,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1406,7 +1406,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1542,7 +1542,7 @@
         <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1559,7 +1559,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1576,7 +1576,7 @@
         <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C47">
         <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1751,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1799,16 +1799,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C51">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1816,16 +1816,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s">
         <v>102</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
